--- a/받은 데이터/스크럽대디_0202_target_base_template.xlsx
+++ b/받은 데이터/스크럽대디_0202_target_base_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Python\받은 데이터\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8C8B982-2530-4517-BA7D-50C963E20A25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C464AB70-0E20-4F40-8B47-614CA51C0615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="1650" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1157" uniqueCount="151">
   <si>
     <t>ID</t>
   </si>
@@ -466,6 +466,30 @@
   </si>
   <si>
     <t>SD_TIGGER_01_18</t>
+  </si>
+  <si>
+    <t>SD_Power_Paste_01_06</t>
+  </si>
+  <si>
+    <t>SD_PE_Gel_01_06</t>
+  </si>
+  <si>
+    <t>SD_TG_Clean_01_06</t>
+  </si>
+  <si>
+    <t>SD_SET22</t>
+  </si>
+  <si>
+    <t>SD_SET23</t>
+  </si>
+  <si>
+    <t>SD_SD_DS_01_08</t>
+  </si>
+  <si>
+    <t>SD_ST_KIT_01_12</t>
+  </si>
+  <si>
+    <t>SD_STY_KIT_01_12</t>
   </si>
 </sst>
 </file>
@@ -882,7 +906,7 @@
   <dimension ref="A1:H329"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -5751,384 +5775,1904 @@
       </c>
     </row>
     <row r="235" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B235" s="5"/>
-      <c r="F235" s="6"/>
+      <c r="B235" s="5">
+        <v>46023</v>
+      </c>
+      <c r="C235" t="s">
+        <v>98</v>
+      </c>
+      <c r="D235" t="s">
+        <v>74</v>
+      </c>
+      <c r="E235" t="s">
+        <v>143</v>
+      </c>
+      <c r="F235" s="6">
+        <v>1162359</v>
+      </c>
+      <c r="G235">
+        <v>62</v>
+      </c>
     </row>
     <row r="236" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B236" s="5"/>
-      <c r="F236" s="6"/>
+      <c r="B236" s="5">
+        <v>46023</v>
+      </c>
+      <c r="C236" t="s">
+        <v>98</v>
+      </c>
+      <c r="D236" t="s">
+        <v>74</v>
+      </c>
+      <c r="E236" t="s">
+        <v>144</v>
+      </c>
+      <c r="F236" s="6">
+        <v>1072947</v>
+      </c>
+      <c r="G236">
+        <v>63</v>
+      </c>
     </row>
     <row r="237" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B237" s="5"/>
-      <c r="F237" s="6"/>
+      <c r="B237" s="5">
+        <v>46023</v>
+      </c>
+      <c r="C237" t="s">
+        <v>98</v>
+      </c>
+      <c r="D237" t="s">
+        <v>74</v>
+      </c>
+      <c r="E237" t="s">
+        <v>145</v>
+      </c>
+      <c r="F237" s="6">
+        <v>894123</v>
+      </c>
+      <c r="G237">
+        <v>56</v>
+      </c>
     </row>
     <row r="238" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B238" s="5"/>
-      <c r="F238" s="6"/>
+      <c r="B238" s="5">
+        <v>46023</v>
+      </c>
+      <c r="C238" t="s">
+        <v>98</v>
+      </c>
+      <c r="D238" t="s">
+        <v>74</v>
+      </c>
+      <c r="E238" t="s">
+        <v>136</v>
+      </c>
+      <c r="F238" s="6">
+        <v>8941227</v>
+      </c>
+      <c r="G238">
+        <v>215</v>
+      </c>
     </row>
     <row r="239" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B239" s="5"/>
-      <c r="F239" s="6"/>
+      <c r="B239" s="5">
+        <v>46023</v>
+      </c>
+      <c r="C239" t="s">
+        <v>98</v>
+      </c>
+      <c r="D239" t="s">
+        <v>74</v>
+      </c>
+      <c r="E239" t="s">
+        <v>146</v>
+      </c>
+      <c r="F239" s="6">
+        <v>12517717</v>
+      </c>
+      <c r="G239">
+        <v>250</v>
+      </c>
     </row>
     <row r="240" spans="2:8" x14ac:dyDescent="0.45">
-      <c r="B240" s="5"/>
-      <c r="F240" s="6"/>
-    </row>
-    <row r="241" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B241" s="5"/>
-      <c r="F241" s="6"/>
-    </row>
-    <row r="242" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B242" s="5"/>
-      <c r="F242" s="6"/>
-    </row>
-    <row r="243" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B243" s="5"/>
-      <c r="F243" s="6"/>
-    </row>
-    <row r="244" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B244" s="5"/>
-      <c r="F244" s="6"/>
-    </row>
-    <row r="245" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B245" s="5"/>
-      <c r="F245" s="6"/>
-    </row>
-    <row r="246" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B246" s="5"/>
-      <c r="F246" s="6"/>
-    </row>
-    <row r="247" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B247" s="5"/>
-      <c r="F247" s="6"/>
-    </row>
-    <row r="248" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B248" s="5"/>
-      <c r="F248" s="6"/>
-    </row>
-    <row r="249" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B249" s="5"/>
-      <c r="F249" s="6"/>
-    </row>
-    <row r="250" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B250" s="5"/>
-      <c r="F250" s="6"/>
-    </row>
-    <row r="251" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B251" s="5"/>
-      <c r="F251" s="6"/>
-    </row>
-    <row r="252" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B252" s="5"/>
-      <c r="F252" s="6"/>
-    </row>
-    <row r="253" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B253" s="5"/>
-      <c r="F253" s="6"/>
-    </row>
-    <row r="254" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B254" s="5"/>
-      <c r="F254" s="6"/>
-    </row>
-    <row r="255" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B255" s="5"/>
-      <c r="F255" s="6"/>
-    </row>
-    <row r="256" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B256" s="5"/>
-      <c r="F256" s="6"/>
-    </row>
-    <row r="257" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B257" s="5"/>
-      <c r="F257" s="6"/>
-    </row>
-    <row r="258" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B258" s="5"/>
-      <c r="F258" s="6"/>
-    </row>
-    <row r="259" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B259" s="5"/>
-      <c r="F259" s="6"/>
-    </row>
-    <row r="260" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B260" s="5"/>
-      <c r="F260" s="6"/>
-    </row>
-    <row r="261" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B261" s="5"/>
-      <c r="F261" s="6"/>
-    </row>
-    <row r="262" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B262" s="5"/>
-      <c r="F262" s="6"/>
-    </row>
-    <row r="263" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B263" s="5"/>
-      <c r="F263" s="6"/>
-    </row>
-    <row r="264" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B264" s="5"/>
-      <c r="F264" s="6"/>
-    </row>
-    <row r="265" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B265" s="5"/>
-      <c r="F265" s="6"/>
-    </row>
-    <row r="266" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B266" s="5"/>
-      <c r="F266" s="6"/>
-    </row>
-    <row r="267" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B267" s="5"/>
-      <c r="F267" s="6"/>
-    </row>
-    <row r="268" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B268" s="5"/>
-      <c r="F268" s="6"/>
-    </row>
-    <row r="269" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B269" s="5"/>
-      <c r="F269" s="6"/>
-    </row>
-    <row r="270" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B270" s="5"/>
-      <c r="F270" s="6"/>
-    </row>
-    <row r="271" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B271" s="5"/>
-      <c r="F271" s="6"/>
-    </row>
-    <row r="272" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B272" s="5"/>
-      <c r="F272" s="6"/>
-    </row>
-    <row r="273" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B273" s="5"/>
-      <c r="F273" s="6"/>
-    </row>
-    <row r="274" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B274" s="5"/>
-      <c r="F274" s="6"/>
-    </row>
-    <row r="275" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B275" s="5"/>
-      <c r="F275" s="6"/>
-    </row>
-    <row r="276" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B276" s="5"/>
-      <c r="F276" s="6"/>
-    </row>
-    <row r="277" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B277" s="5"/>
-      <c r="F277" s="6"/>
-    </row>
-    <row r="278" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B278" s="5"/>
-      <c r="F278" s="6"/>
-    </row>
-    <row r="279" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B279" s="5"/>
-      <c r="F279" s="6"/>
-    </row>
-    <row r="280" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B280" s="5"/>
-      <c r="F280" s="6"/>
-    </row>
-    <row r="281" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B281" s="5"/>
-      <c r="F281" s="6"/>
-    </row>
-    <row r="282" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B282" s="5"/>
-      <c r="F282" s="6"/>
-    </row>
-    <row r="283" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B283" s="5"/>
-      <c r="F283" s="6"/>
-    </row>
-    <row r="284" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B284" s="5"/>
-      <c r="F284" s="6"/>
-    </row>
-    <row r="285" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B285" s="5"/>
-      <c r="F285" s="6"/>
-    </row>
-    <row r="286" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B286" s="5"/>
-      <c r="F286" s="6"/>
-    </row>
-    <row r="287" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B287" s="5"/>
-      <c r="F287" s="6"/>
-    </row>
-    <row r="288" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B288" s="5"/>
-      <c r="F288" s="6"/>
-    </row>
-    <row r="289" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B289" s="5"/>
-      <c r="F289" s="6"/>
-    </row>
-    <row r="290" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B290" s="5"/>
-      <c r="F290" s="6"/>
-    </row>
-    <row r="291" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B291" s="5"/>
-      <c r="F291" s="6"/>
-    </row>
-    <row r="292" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B292" s="5"/>
-      <c r="F292" s="6"/>
-    </row>
-    <row r="293" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B293" s="5"/>
-      <c r="F293" s="6"/>
-    </row>
-    <row r="294" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B294" s="5"/>
-      <c r="F294" s="6"/>
-    </row>
-    <row r="295" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B295" s="5"/>
-      <c r="F295" s="6"/>
-    </row>
-    <row r="296" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B296" s="5"/>
-      <c r="F296" s="6"/>
-    </row>
-    <row r="297" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B297" s="5"/>
-      <c r="F297" s="6"/>
-    </row>
-    <row r="298" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B298" s="5"/>
-      <c r="F298" s="6"/>
-    </row>
-    <row r="299" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B299" s="5"/>
-      <c r="F299" s="6"/>
-    </row>
-    <row r="300" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B300" s="5"/>
-      <c r="F300" s="6"/>
-    </row>
-    <row r="301" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B301" s="5"/>
-      <c r="F301" s="6"/>
-    </row>
-    <row r="302" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B302" s="5"/>
-      <c r="F302" s="6"/>
-    </row>
-    <row r="303" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B303" s="5"/>
-      <c r="F303" s="6"/>
-    </row>
-    <row r="304" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B304" s="5"/>
-      <c r="F304" s="6"/>
-    </row>
-    <row r="305" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B305" s="5"/>
-      <c r="F305" s="6"/>
-    </row>
-    <row r="306" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B306" s="5"/>
-      <c r="F306" s="6"/>
-    </row>
-    <row r="307" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B307" s="5"/>
-      <c r="F307" s="6"/>
-    </row>
-    <row r="308" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B308" s="5"/>
-      <c r="F308" s="6"/>
-    </row>
-    <row r="309" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B309" s="5"/>
-      <c r="F309" s="6"/>
-    </row>
-    <row r="310" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B310" s="5"/>
-      <c r="F310" s="6"/>
-    </row>
-    <row r="311" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B311" s="5"/>
-      <c r="F311" s="6"/>
-    </row>
-    <row r="312" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B312" s="5"/>
-      <c r="F312" s="6"/>
-    </row>
-    <row r="313" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B313" s="5"/>
-      <c r="F313" s="6"/>
-    </row>
-    <row r="314" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B314" s="5"/>
-      <c r="F314" s="6"/>
-    </row>
-    <row r="315" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B315" s="5"/>
-      <c r="F315" s="6"/>
-    </row>
-    <row r="316" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B316" s="5"/>
-      <c r="F316" s="6"/>
-    </row>
-    <row r="317" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B317" s="5"/>
-      <c r="F317" s="6"/>
-    </row>
-    <row r="318" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B318" s="5"/>
-      <c r="F318" s="6"/>
-    </row>
-    <row r="319" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B319" s="5"/>
-      <c r="F319" s="6"/>
-    </row>
-    <row r="320" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B320" s="5"/>
-      <c r="F320" s="6"/>
-    </row>
-    <row r="321" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B321" s="5"/>
-      <c r="F321" s="6"/>
-    </row>
-    <row r="322" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B322" s="5"/>
-      <c r="F322" s="6"/>
-    </row>
-    <row r="323" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B323" s="5"/>
-      <c r="F323" s="6"/>
-    </row>
-    <row r="324" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B324" s="5"/>
-      <c r="F324" s="6"/>
-    </row>
-    <row r="325" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B325" s="5"/>
-      <c r="F325" s="6"/>
-    </row>
-    <row r="326" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B326" s="5"/>
-      <c r="F326" s="6"/>
-    </row>
-    <row r="327" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B327" s="5"/>
-      <c r="F327" s="6"/>
-    </row>
-    <row r="328" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B328" s="5"/>
-      <c r="F328" s="6"/>
-    </row>
-    <row r="329" spans="2:6" x14ac:dyDescent="0.45">
-      <c r="B329" s="5"/>
-      <c r="F329" s="6"/>
+      <c r="B240" s="5">
+        <v>46023</v>
+      </c>
+      <c r="C240" t="s">
+        <v>98</v>
+      </c>
+      <c r="D240" t="s">
+        <v>74</v>
+      </c>
+      <c r="E240" t="s">
+        <v>147</v>
+      </c>
+      <c r="F240" s="6">
+        <v>12517717</v>
+      </c>
+      <c r="G240">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="241" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B241" s="5">
+        <v>46023</v>
+      </c>
+      <c r="C241" t="s">
+        <v>98</v>
+      </c>
+      <c r="D241" t="s">
+        <v>74</v>
+      </c>
+      <c r="E241" t="s">
+        <v>111</v>
+      </c>
+      <c r="F241" s="6">
+        <v>3630138</v>
+      </c>
+      <c r="G241">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="242" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B242" s="5">
+        <v>46023</v>
+      </c>
+      <c r="C242" t="s">
+        <v>98</v>
+      </c>
+      <c r="D242" t="s">
+        <v>74</v>
+      </c>
+      <c r="E242" t="s">
+        <v>110</v>
+      </c>
+      <c r="F242" s="6">
+        <v>2628721</v>
+      </c>
+      <c r="G242">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="243" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B243" s="5">
+        <v>46023</v>
+      </c>
+      <c r="C243" t="s">
+        <v>98</v>
+      </c>
+      <c r="D243" t="s">
+        <v>74</v>
+      </c>
+      <c r="E243" t="s">
+        <v>148</v>
+      </c>
+      <c r="F243" s="6">
+        <v>894123</v>
+      </c>
+      <c r="G243">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="244" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B244" s="5">
+        <v>46023</v>
+      </c>
+      <c r="C244" t="s">
+        <v>98</v>
+      </c>
+      <c r="D244" t="s">
+        <v>74</v>
+      </c>
+      <c r="E244" t="s">
+        <v>132</v>
+      </c>
+      <c r="F244" s="6">
+        <v>2682368</v>
+      </c>
+      <c r="G244">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="245" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B245" s="5">
+        <v>46023</v>
+      </c>
+      <c r="C245" t="s">
+        <v>98</v>
+      </c>
+      <c r="D245" t="s">
+        <v>74</v>
+      </c>
+      <c r="E245" t="s">
+        <v>104</v>
+      </c>
+      <c r="F245" s="6">
+        <v>5364736</v>
+      </c>
+      <c r="G245">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="246" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B246" s="5">
+        <v>46023</v>
+      </c>
+      <c r="C246" t="s">
+        <v>98</v>
+      </c>
+      <c r="D246" t="s">
+        <v>74</v>
+      </c>
+      <c r="E246" t="s">
+        <v>105</v>
+      </c>
+      <c r="F246" s="6">
+        <v>9388288</v>
+      </c>
+      <c r="G246">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="247" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B247" s="5">
+        <v>46023</v>
+      </c>
+      <c r="C247" t="s">
+        <v>98</v>
+      </c>
+      <c r="D247" t="s">
+        <v>74</v>
+      </c>
+      <c r="E247" t="s">
+        <v>109</v>
+      </c>
+      <c r="F247" s="6">
+        <v>4470613</v>
+      </c>
+      <c r="G247">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="248" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B248" s="5">
+        <v>46023</v>
+      </c>
+      <c r="C248" t="s">
+        <v>98</v>
+      </c>
+      <c r="D248" t="s">
+        <v>74</v>
+      </c>
+      <c r="E248" t="s">
+        <v>106</v>
+      </c>
+      <c r="F248" s="6">
+        <v>8047104</v>
+      </c>
+      <c r="G248">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="249" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B249" s="5">
+        <v>46023</v>
+      </c>
+      <c r="C249" t="s">
+        <v>98</v>
+      </c>
+      <c r="D249" t="s">
+        <v>74</v>
+      </c>
+      <c r="E249" t="s">
+        <v>112</v>
+      </c>
+      <c r="F249" s="6">
+        <v>4470613</v>
+      </c>
+      <c r="G249">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="250" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B250" s="5">
+        <v>46023</v>
+      </c>
+      <c r="C250" t="s">
+        <v>98</v>
+      </c>
+      <c r="D250" t="s">
+        <v>74</v>
+      </c>
+      <c r="E250" t="s">
+        <v>108</v>
+      </c>
+      <c r="F250" s="6">
+        <v>2682368</v>
+      </c>
+      <c r="G250">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="251" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B251" s="5">
+        <v>46023</v>
+      </c>
+      <c r="C251" t="s">
+        <v>98</v>
+      </c>
+      <c r="D251" t="s">
+        <v>74</v>
+      </c>
+      <c r="E251" t="s">
+        <v>149</v>
+      </c>
+      <c r="F251" s="6">
+        <v>1931305</v>
+      </c>
+      <c r="G251">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="252" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B252" s="5">
+        <v>46023</v>
+      </c>
+      <c r="C252" t="s">
+        <v>98</v>
+      </c>
+      <c r="D252" t="s">
+        <v>74</v>
+      </c>
+      <c r="E252" t="s">
+        <v>150</v>
+      </c>
+      <c r="F252" s="6">
+        <v>3433431</v>
+      </c>
+      <c r="G252">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="253" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B253" s="5">
+        <v>46023</v>
+      </c>
+      <c r="C253" t="s">
+        <v>98</v>
+      </c>
+      <c r="D253" t="s">
+        <v>74</v>
+      </c>
+      <c r="E253" t="s">
+        <v>107</v>
+      </c>
+      <c r="F253" s="6">
+        <v>2682368</v>
+      </c>
+      <c r="G253">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="254" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B254" s="5">
+        <v>46054</v>
+      </c>
+      <c r="C254" t="s">
+        <v>98</v>
+      </c>
+      <c r="D254" t="s">
+        <v>74</v>
+      </c>
+      <c r="E254" t="s">
+        <v>143</v>
+      </c>
+      <c r="F254" s="6">
+        <v>1241791</v>
+      </c>
+      <c r="G254">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="255" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B255" s="5">
+        <v>46054</v>
+      </c>
+      <c r="C255" t="s">
+        <v>98</v>
+      </c>
+      <c r="D255" t="s">
+        <v>74</v>
+      </c>
+      <c r="E255" t="s">
+        <v>144</v>
+      </c>
+      <c r="F255" s="6">
+        <v>1146269</v>
+      </c>
+      <c r="G255">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="256" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B256" s="5">
+        <v>46054</v>
+      </c>
+      <c r="C256" t="s">
+        <v>98</v>
+      </c>
+      <c r="D256" t="s">
+        <v>74</v>
+      </c>
+      <c r="E256" t="s">
+        <v>145</v>
+      </c>
+      <c r="F256" s="6">
+        <v>955224</v>
+      </c>
+      <c r="G256">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="257" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B257" s="5">
+        <v>46054</v>
+      </c>
+      <c r="C257" t="s">
+        <v>98</v>
+      </c>
+      <c r="D257" t="s">
+        <v>74</v>
+      </c>
+      <c r="E257" t="s">
+        <v>136</v>
+      </c>
+      <c r="F257" s="6">
+        <v>9552241</v>
+      </c>
+      <c r="G257">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="258" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B258" s="5">
+        <v>46054</v>
+      </c>
+      <c r="C258" t="s">
+        <v>98</v>
+      </c>
+      <c r="D258" t="s">
+        <v>74</v>
+      </c>
+      <c r="E258" t="s">
+        <v>146</v>
+      </c>
+      <c r="F258" s="6">
+        <v>13373137</v>
+      </c>
+      <c r="G258">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="259" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B259" s="5">
+        <v>46054</v>
+      </c>
+      <c r="C259" t="s">
+        <v>98</v>
+      </c>
+      <c r="D259" t="s">
+        <v>74</v>
+      </c>
+      <c r="E259" t="s">
+        <v>147</v>
+      </c>
+      <c r="F259" s="6">
+        <v>13373137</v>
+      </c>
+      <c r="G259">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="260" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B260" s="5">
+        <v>46054</v>
+      </c>
+      <c r="C260" t="s">
+        <v>98</v>
+      </c>
+      <c r="D260" t="s">
+        <v>74</v>
+      </c>
+      <c r="E260" t="s">
+        <v>111</v>
+      </c>
+      <c r="F260" s="6">
+        <v>3878210</v>
+      </c>
+      <c r="G260">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="261" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B261" s="5">
+        <v>46054</v>
+      </c>
+      <c r="C261" t="s">
+        <v>98</v>
+      </c>
+      <c r="D261" t="s">
+        <v>74</v>
+      </c>
+      <c r="E261" t="s">
+        <v>110</v>
+      </c>
+      <c r="F261" s="6">
+        <v>2808359</v>
+      </c>
+      <c r="G261">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="262" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B262" s="5">
+        <v>46054</v>
+      </c>
+      <c r="C262" t="s">
+        <v>98</v>
+      </c>
+      <c r="D262" t="s">
+        <v>74</v>
+      </c>
+      <c r="E262" t="s">
+        <v>148</v>
+      </c>
+      <c r="F262" s="6">
+        <v>955224</v>
+      </c>
+      <c r="G262">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="263" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B263" s="5">
+        <v>46054</v>
+      </c>
+      <c r="C263" t="s">
+        <v>98</v>
+      </c>
+      <c r="D263" t="s">
+        <v>74</v>
+      </c>
+      <c r="E263" t="s">
+        <v>132</v>
+      </c>
+      <c r="F263" s="6">
+        <v>2865672</v>
+      </c>
+      <c r="G263">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="264" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B264" s="5">
+        <v>46054</v>
+      </c>
+      <c r="C264" t="s">
+        <v>98</v>
+      </c>
+      <c r="D264" t="s">
+        <v>74</v>
+      </c>
+      <c r="E264" t="s">
+        <v>104</v>
+      </c>
+      <c r="F264" s="6">
+        <v>5731344</v>
+      </c>
+      <c r="G264">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="265" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B265" s="5">
+        <v>46054</v>
+      </c>
+      <c r="C265" t="s">
+        <v>98</v>
+      </c>
+      <c r="D265" t="s">
+        <v>74</v>
+      </c>
+      <c r="E265" t="s">
+        <v>105</v>
+      </c>
+      <c r="F265" s="6">
+        <v>10029853</v>
+      </c>
+      <c r="G265">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="266" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B266" s="5">
+        <v>46054</v>
+      </c>
+      <c r="C266" t="s">
+        <v>98</v>
+      </c>
+      <c r="D266" t="s">
+        <v>74</v>
+      </c>
+      <c r="E266" t="s">
+        <v>109</v>
+      </c>
+      <c r="F266" s="6">
+        <v>4776120</v>
+      </c>
+      <c r="G266">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="267" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B267" s="5">
+        <v>46054</v>
+      </c>
+      <c r="C267" t="s">
+        <v>98</v>
+      </c>
+      <c r="D267" t="s">
+        <v>74</v>
+      </c>
+      <c r="E267" t="s">
+        <v>106</v>
+      </c>
+      <c r="F267" s="6">
+        <v>8597017</v>
+      </c>
+      <c r="G267">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="268" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B268" s="5">
+        <v>46054</v>
+      </c>
+      <c r="C268" t="s">
+        <v>98</v>
+      </c>
+      <c r="D268" t="s">
+        <v>74</v>
+      </c>
+      <c r="E268" t="s">
+        <v>112</v>
+      </c>
+      <c r="F268" s="6">
+        <v>4776120</v>
+      </c>
+      <c r="G268">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="269" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B269" s="5">
+        <v>46054</v>
+      </c>
+      <c r="C269" t="s">
+        <v>98</v>
+      </c>
+      <c r="D269" t="s">
+        <v>74</v>
+      </c>
+      <c r="E269" t="s">
+        <v>108</v>
+      </c>
+      <c r="F269" s="6">
+        <v>2865672</v>
+      </c>
+      <c r="G269">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="270" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B270" s="5">
+        <v>46054</v>
+      </c>
+      <c r="C270" t="s">
+        <v>98</v>
+      </c>
+      <c r="D270" t="s">
+        <v>74</v>
+      </c>
+      <c r="E270" t="s">
+        <v>149</v>
+      </c>
+      <c r="F270" s="6">
+        <v>2063284</v>
+      </c>
+      <c r="G270">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="271" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B271" s="5">
+        <v>46054</v>
+      </c>
+      <c r="C271" t="s">
+        <v>98</v>
+      </c>
+      <c r="D271" t="s">
+        <v>74</v>
+      </c>
+      <c r="E271" t="s">
+        <v>150</v>
+      </c>
+      <c r="F271" s="6">
+        <v>3668060</v>
+      </c>
+      <c r="G271">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="272" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B272" s="5">
+        <v>46054</v>
+      </c>
+      <c r="C272" t="s">
+        <v>98</v>
+      </c>
+      <c r="D272" t="s">
+        <v>74</v>
+      </c>
+      <c r="E272" t="s">
+        <v>107</v>
+      </c>
+      <c r="F272" s="6">
+        <v>2865672</v>
+      </c>
+      <c r="G272">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="273" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B273" s="5">
+        <v>46082</v>
+      </c>
+      <c r="C273" t="s">
+        <v>98</v>
+      </c>
+      <c r="D273" t="s">
+        <v>74</v>
+      </c>
+      <c r="E273" t="s">
+        <v>143</v>
+      </c>
+      <c r="F273" s="6">
+        <v>1323028</v>
+      </c>
+      <c r="G273">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="274" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B274" s="5">
+        <v>46082</v>
+      </c>
+      <c r="C274" t="s">
+        <v>98</v>
+      </c>
+      <c r="D274" t="s">
+        <v>74</v>
+      </c>
+      <c r="E274" t="s">
+        <v>144</v>
+      </c>
+      <c r="F274" s="6">
+        <v>1221257</v>
+      </c>
+      <c r="G274">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="275" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B275" s="5">
+        <v>46082</v>
+      </c>
+      <c r="C275" t="s">
+        <v>98</v>
+      </c>
+      <c r="D275" t="s">
+        <v>74</v>
+      </c>
+      <c r="E275" t="s">
+        <v>145</v>
+      </c>
+      <c r="F275" s="6">
+        <v>1017714</v>
+      </c>
+      <c r="G275">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="276" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B276" s="5">
+        <v>46082</v>
+      </c>
+      <c r="C276" t="s">
+        <v>98</v>
+      </c>
+      <c r="D276" t="s">
+        <v>74</v>
+      </c>
+      <c r="E276" t="s">
+        <v>136</v>
+      </c>
+      <c r="F276" s="6">
+        <v>10177140</v>
+      </c>
+      <c r="G276">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="277" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B277" s="5">
+        <v>46082</v>
+      </c>
+      <c r="C277" t="s">
+        <v>98</v>
+      </c>
+      <c r="D277" t="s">
+        <v>74</v>
+      </c>
+      <c r="E277" t="s">
+        <v>146</v>
+      </c>
+      <c r="F277" s="6">
+        <v>14247996</v>
+      </c>
+      <c r="G277">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="278" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B278" s="5">
+        <v>46082</v>
+      </c>
+      <c r="C278" t="s">
+        <v>98</v>
+      </c>
+      <c r="D278" t="s">
+        <v>74</v>
+      </c>
+      <c r="E278" t="s">
+        <v>147</v>
+      </c>
+      <c r="F278" s="6">
+        <v>14247996</v>
+      </c>
+      <c r="G278">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="279" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B279" s="5">
+        <v>46082</v>
+      </c>
+      <c r="C279" t="s">
+        <v>98</v>
+      </c>
+      <c r="D279" t="s">
+        <v>74</v>
+      </c>
+      <c r="E279" t="s">
+        <v>111</v>
+      </c>
+      <c r="F279" s="6">
+        <v>4131919</v>
+      </c>
+      <c r="G279">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="280" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B280" s="5">
+        <v>46082</v>
+      </c>
+      <c r="C280" t="s">
+        <v>98</v>
+      </c>
+      <c r="D280" t="s">
+        <v>74</v>
+      </c>
+      <c r="E280" t="s">
+        <v>110</v>
+      </c>
+      <c r="F280" s="6">
+        <v>2992079</v>
+      </c>
+      <c r="G280">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="281" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B281" s="5">
+        <v>46082</v>
+      </c>
+      <c r="C281" t="s">
+        <v>98</v>
+      </c>
+      <c r="D281" t="s">
+        <v>74</v>
+      </c>
+      <c r="E281" t="s">
+        <v>148</v>
+      </c>
+      <c r="F281" s="6">
+        <v>1017714</v>
+      </c>
+      <c r="G281">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="282" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B282" s="5">
+        <v>46082</v>
+      </c>
+      <c r="C282" t="s">
+        <v>98</v>
+      </c>
+      <c r="D282" t="s">
+        <v>74</v>
+      </c>
+      <c r="E282" t="s">
+        <v>132</v>
+      </c>
+      <c r="F282" s="6">
+        <v>3053142</v>
+      </c>
+      <c r="G282">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="283" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B283" s="5">
+        <v>46082</v>
+      </c>
+      <c r="C283" t="s">
+        <v>98</v>
+      </c>
+      <c r="D283" t="s">
+        <v>74</v>
+      </c>
+      <c r="E283" t="s">
+        <v>104</v>
+      </c>
+      <c r="F283" s="6">
+        <v>6106284</v>
+      </c>
+      <c r="G283">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="284" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B284" s="5">
+        <v>46082</v>
+      </c>
+      <c r="C284" t="s">
+        <v>98</v>
+      </c>
+      <c r="D284" t="s">
+        <v>74</v>
+      </c>
+      <c r="E284" t="s">
+        <v>105</v>
+      </c>
+      <c r="F284" s="6">
+        <v>10685997</v>
+      </c>
+      <c r="G284">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="285" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B285" s="5">
+        <v>46082</v>
+      </c>
+      <c r="C285" t="s">
+        <v>98</v>
+      </c>
+      <c r="D285" t="s">
+        <v>74</v>
+      </c>
+      <c r="E285" t="s">
+        <v>109</v>
+      </c>
+      <c r="F285" s="6">
+        <v>5088570</v>
+      </c>
+      <c r="G285">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="286" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B286" s="5">
+        <v>46082</v>
+      </c>
+      <c r="C286" t="s">
+        <v>98</v>
+      </c>
+      <c r="D286" t="s">
+        <v>74</v>
+      </c>
+      <c r="E286" t="s">
+        <v>106</v>
+      </c>
+      <c r="F286" s="6">
+        <v>9159426</v>
+      </c>
+      <c r="G286">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="287" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B287" s="5">
+        <v>46082</v>
+      </c>
+      <c r="C287" t="s">
+        <v>98</v>
+      </c>
+      <c r="D287" t="s">
+        <v>74</v>
+      </c>
+      <c r="E287" t="s">
+        <v>112</v>
+      </c>
+      <c r="F287" s="6">
+        <v>5088570</v>
+      </c>
+      <c r="G287">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="288" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B288" s="5">
+        <v>46082</v>
+      </c>
+      <c r="C288" t="s">
+        <v>98</v>
+      </c>
+      <c r="D288" t="s">
+        <v>74</v>
+      </c>
+      <c r="E288" t="s">
+        <v>108</v>
+      </c>
+      <c r="F288" s="6">
+        <v>3053142</v>
+      </c>
+      <c r="G288">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="289" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B289" s="5">
+        <v>46082</v>
+      </c>
+      <c r="C289" t="s">
+        <v>98</v>
+      </c>
+      <c r="D289" t="s">
+        <v>74</v>
+      </c>
+      <c r="E289" t="s">
+        <v>149</v>
+      </c>
+      <c r="F289" s="6">
+        <v>2198262</v>
+      </c>
+      <c r="G289">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="290" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B290" s="5">
+        <v>46082</v>
+      </c>
+      <c r="C290" t="s">
+        <v>98</v>
+      </c>
+      <c r="D290" t="s">
+        <v>74</v>
+      </c>
+      <c r="E290" t="s">
+        <v>150</v>
+      </c>
+      <c r="F290" s="6">
+        <v>3908022</v>
+      </c>
+      <c r="G290">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="291" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B291" s="5">
+        <v>46082</v>
+      </c>
+      <c r="C291" t="s">
+        <v>98</v>
+      </c>
+      <c r="D291" t="s">
+        <v>74</v>
+      </c>
+      <c r="E291" t="s">
+        <v>107</v>
+      </c>
+      <c r="F291" s="6">
+        <v>3053142</v>
+      </c>
+      <c r="G291">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="292" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B292" s="5">
+        <v>46113</v>
+      </c>
+      <c r="C292" t="s">
+        <v>98</v>
+      </c>
+      <c r="D292" t="s">
+        <v>74</v>
+      </c>
+      <c r="E292" t="s">
+        <v>143</v>
+      </c>
+      <c r="F292" s="6">
+        <v>1406075</v>
+      </c>
+      <c r="G292">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="293" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B293" s="5">
+        <v>46113</v>
+      </c>
+      <c r="C293" t="s">
+        <v>98</v>
+      </c>
+      <c r="D293" t="s">
+        <v>74</v>
+      </c>
+      <c r="E293" t="s">
+        <v>144</v>
+      </c>
+      <c r="F293" s="6">
+        <v>1297916</v>
+      </c>
+      <c r="G293">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="294" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B294" s="5">
+        <v>46113</v>
+      </c>
+      <c r="C294" t="s">
+        <v>98</v>
+      </c>
+      <c r="D294" t="s">
+        <v>74</v>
+      </c>
+      <c r="E294" t="s">
+        <v>145</v>
+      </c>
+      <c r="F294" s="6">
+        <v>1081596</v>
+      </c>
+      <c r="G294">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="295" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B295" s="5">
+        <v>46113</v>
+      </c>
+      <c r="C295" t="s">
+        <v>98</v>
+      </c>
+      <c r="D295" t="s">
+        <v>74</v>
+      </c>
+      <c r="E295" t="s">
+        <v>136</v>
+      </c>
+      <c r="F295" s="6">
+        <v>10815963</v>
+      </c>
+      <c r="G295">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="296" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B296" s="5">
+        <v>46113</v>
+      </c>
+      <c r="C296" t="s">
+        <v>98</v>
+      </c>
+      <c r="D296" t="s">
+        <v>74</v>
+      </c>
+      <c r="E296" t="s">
+        <v>146</v>
+      </c>
+      <c r="F296" s="6">
+        <v>15142348</v>
+      </c>
+      <c r="G296">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="297" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B297" s="5">
+        <v>46113</v>
+      </c>
+      <c r="C297" t="s">
+        <v>98</v>
+      </c>
+      <c r="D297" t="s">
+        <v>74</v>
+      </c>
+      <c r="E297" t="s">
+        <v>147</v>
+      </c>
+      <c r="F297" s="6">
+        <v>15142348</v>
+      </c>
+      <c r="G297">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="298" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B298" s="5">
+        <v>46113</v>
+      </c>
+      <c r="C298" t="s">
+        <v>98</v>
+      </c>
+      <c r="D298" t="s">
+        <v>74</v>
+      </c>
+      <c r="E298" t="s">
+        <v>111</v>
+      </c>
+      <c r="F298" s="6">
+        <v>4391281</v>
+      </c>
+      <c r="G298">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="299" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B299" s="5">
+        <v>46113</v>
+      </c>
+      <c r="C299" t="s">
+        <v>98</v>
+      </c>
+      <c r="D299" t="s">
+        <v>74</v>
+      </c>
+      <c r="E299" t="s">
+        <v>110</v>
+      </c>
+      <c r="F299" s="6">
+        <v>3179893</v>
+      </c>
+      <c r="G299">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="300" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B300" s="5">
+        <v>46113</v>
+      </c>
+      <c r="C300" t="s">
+        <v>98</v>
+      </c>
+      <c r="D300" t="s">
+        <v>74</v>
+      </c>
+      <c r="E300" t="s">
+        <v>148</v>
+      </c>
+      <c r="F300" s="6">
+        <v>1081596</v>
+      </c>
+      <c r="G300">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="301" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B301" s="5">
+        <v>46113</v>
+      </c>
+      <c r="C301" t="s">
+        <v>98</v>
+      </c>
+      <c r="D301" t="s">
+        <v>74</v>
+      </c>
+      <c r="E301" t="s">
+        <v>132</v>
+      </c>
+      <c r="F301" s="6">
+        <v>3244789</v>
+      </c>
+      <c r="G301">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="302" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B302" s="5">
+        <v>46113</v>
+      </c>
+      <c r="C302" t="s">
+        <v>98</v>
+      </c>
+      <c r="D302" t="s">
+        <v>74</v>
+      </c>
+      <c r="E302" t="s">
+        <v>104</v>
+      </c>
+      <c r="F302" s="6">
+        <v>6489578</v>
+      </c>
+      <c r="G302">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="303" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B303" s="5">
+        <v>46113</v>
+      </c>
+      <c r="C303" t="s">
+        <v>98</v>
+      </c>
+      <c r="D303" t="s">
+        <v>74</v>
+      </c>
+      <c r="E303" t="s">
+        <v>105</v>
+      </c>
+      <c r="F303" s="6">
+        <v>11356761</v>
+      </c>
+      <c r="G303">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="304" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B304" s="5">
+        <v>46113</v>
+      </c>
+      <c r="C304" t="s">
+        <v>98</v>
+      </c>
+      <c r="D304" t="s">
+        <v>74</v>
+      </c>
+      <c r="E304" t="s">
+        <v>109</v>
+      </c>
+      <c r="F304" s="6">
+        <v>5407982</v>
+      </c>
+      <c r="G304">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="305" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B305" s="5">
+        <v>46113</v>
+      </c>
+      <c r="C305" t="s">
+        <v>98</v>
+      </c>
+      <c r="D305" t="s">
+        <v>74</v>
+      </c>
+      <c r="E305" t="s">
+        <v>106</v>
+      </c>
+      <c r="F305" s="6">
+        <v>9734367</v>
+      </c>
+      <c r="G305">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="306" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B306" s="5">
+        <v>46113</v>
+      </c>
+      <c r="C306" t="s">
+        <v>98</v>
+      </c>
+      <c r="D306" t="s">
+        <v>74</v>
+      </c>
+      <c r="E306" t="s">
+        <v>112</v>
+      </c>
+      <c r="F306" s="6">
+        <v>5407982</v>
+      </c>
+      <c r="G306">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="307" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B307" s="5">
+        <v>46113</v>
+      </c>
+      <c r="C307" t="s">
+        <v>98</v>
+      </c>
+      <c r="D307" t="s">
+        <v>74</v>
+      </c>
+      <c r="E307" t="s">
+        <v>108</v>
+      </c>
+      <c r="F307" s="6">
+        <v>3244789</v>
+      </c>
+      <c r="G307">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="308" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B308" s="5">
+        <v>46113</v>
+      </c>
+      <c r="C308" t="s">
+        <v>98</v>
+      </c>
+      <c r="D308" t="s">
+        <v>74</v>
+      </c>
+      <c r="E308" t="s">
+        <v>149</v>
+      </c>
+      <c r="F308" s="6">
+        <v>2336248</v>
+      </c>
+      <c r="G308">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="309" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B309" s="5">
+        <v>46113</v>
+      </c>
+      <c r="C309" t="s">
+        <v>98</v>
+      </c>
+      <c r="D309" t="s">
+        <v>74</v>
+      </c>
+      <c r="E309" t="s">
+        <v>150</v>
+      </c>
+      <c r="F309" s="6">
+        <v>4153330</v>
+      </c>
+      <c r="G309">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="310" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B310" s="5">
+        <v>46113</v>
+      </c>
+      <c r="C310" t="s">
+        <v>98</v>
+      </c>
+      <c r="D310" t="s">
+        <v>74</v>
+      </c>
+      <c r="E310" t="s">
+        <v>107</v>
+      </c>
+      <c r="F310" s="6">
+        <v>3244789</v>
+      </c>
+      <c r="G310">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="311" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B311" s="5">
+        <v>46143</v>
+      </c>
+      <c r="C311" t="s">
+        <v>98</v>
+      </c>
+      <c r="D311" t="s">
+        <v>74</v>
+      </c>
+      <c r="E311" t="s">
+        <v>136</v>
+      </c>
+      <c r="F311" s="6">
+        <v>13895646</v>
+      </c>
+      <c r="G311">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="312" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B312" s="5">
+        <v>46143</v>
+      </c>
+      <c r="C312" t="s">
+        <v>98</v>
+      </c>
+      <c r="D312" t="s">
+        <v>74</v>
+      </c>
+      <c r="E312" t="s">
+        <v>146</v>
+      </c>
+      <c r="F312" s="6">
+        <v>20843469</v>
+      </c>
+      <c r="G312">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="313" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B313" s="5">
+        <v>46143</v>
+      </c>
+      <c r="C313" t="s">
+        <v>98</v>
+      </c>
+      <c r="D313" t="s">
+        <v>74</v>
+      </c>
+      <c r="E313" t="s">
+        <v>147</v>
+      </c>
+      <c r="F313" s="6">
+        <v>20843469</v>
+      </c>
+      <c r="G313">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="314" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B314" s="5">
+        <v>46143</v>
+      </c>
+      <c r="C314" t="s">
+        <v>98</v>
+      </c>
+      <c r="D314" t="s">
+        <v>74</v>
+      </c>
+      <c r="E314" t="s">
+        <v>111</v>
+      </c>
+      <c r="F314" s="6">
+        <v>5037172</v>
+      </c>
+      <c r="G314">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="315" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B315" s="5">
+        <v>46143</v>
+      </c>
+      <c r="C315" t="s">
+        <v>98</v>
+      </c>
+      <c r="D315" t="s">
+        <v>74</v>
+      </c>
+      <c r="E315" t="s">
+        <v>110</v>
+      </c>
+      <c r="F315" s="6">
+        <v>3647607</v>
+      </c>
+      <c r="G315">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="316" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B316" s="5">
+        <v>46143</v>
+      </c>
+      <c r="C316" t="s">
+        <v>98</v>
+      </c>
+      <c r="D316" t="s">
+        <v>74</v>
+      </c>
+      <c r="E316" t="s">
+        <v>148</v>
+      </c>
+      <c r="F316" s="6">
+        <v>868478</v>
+      </c>
+      <c r="G316">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="317" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B317" s="5">
+        <v>46143</v>
+      </c>
+      <c r="C317" t="s">
+        <v>98</v>
+      </c>
+      <c r="D317" t="s">
+        <v>74</v>
+      </c>
+      <c r="E317" t="s">
+        <v>132</v>
+      </c>
+      <c r="F317" s="6">
+        <v>3473911</v>
+      </c>
+      <c r="G317">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="318" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B318" s="5">
+        <v>46143</v>
+      </c>
+      <c r="C318" t="s">
+        <v>98</v>
+      </c>
+      <c r="D318" t="s">
+        <v>74</v>
+      </c>
+      <c r="E318" t="s">
+        <v>104</v>
+      </c>
+      <c r="F318" s="6">
+        <v>7816301</v>
+      </c>
+      <c r="G318">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="319" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B319" s="5">
+        <v>46143</v>
+      </c>
+      <c r="C319" t="s">
+        <v>98</v>
+      </c>
+      <c r="D319" t="s">
+        <v>74</v>
+      </c>
+      <c r="E319" t="s">
+        <v>105</v>
+      </c>
+      <c r="F319" s="6">
+        <v>16501080</v>
+      </c>
+      <c r="G319">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="320" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B320" s="5">
+        <v>46143</v>
+      </c>
+      <c r="C320" t="s">
+        <v>98</v>
+      </c>
+      <c r="D320" t="s">
+        <v>74</v>
+      </c>
+      <c r="E320" t="s">
+        <v>109</v>
+      </c>
+      <c r="F320" s="6">
+        <v>6947823</v>
+      </c>
+      <c r="G320">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="321" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B321" s="5">
+        <v>46143</v>
+      </c>
+      <c r="C321" t="s">
+        <v>98</v>
+      </c>
+      <c r="D321" t="s">
+        <v>74</v>
+      </c>
+      <c r="E321" t="s">
+        <v>106</v>
+      </c>
+      <c r="F321" s="6">
+        <v>13895646</v>
+      </c>
+      <c r="G321">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="322" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B322" s="5">
+        <v>46143</v>
+      </c>
+      <c r="C322" t="s">
+        <v>98</v>
+      </c>
+      <c r="D322" t="s">
+        <v>74</v>
+      </c>
+      <c r="E322" t="s">
+        <v>112</v>
+      </c>
+      <c r="F322" s="6">
+        <v>6947823</v>
+      </c>
+      <c r="G322">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="323" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B323" s="5">
+        <v>46143</v>
+      </c>
+      <c r="C323" t="s">
+        <v>98</v>
+      </c>
+      <c r="D323" t="s">
+        <v>74</v>
+      </c>
+      <c r="E323" t="s">
+        <v>108</v>
+      </c>
+      <c r="F323" s="6">
+        <v>3473911</v>
+      </c>
+      <c r="G323">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="324" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B324" s="5">
+        <v>46143</v>
+      </c>
+      <c r="C324" t="s">
+        <v>98</v>
+      </c>
+      <c r="D324" t="s">
+        <v>74</v>
+      </c>
+      <c r="E324" t="s">
+        <v>149</v>
+      </c>
+      <c r="F324" s="6">
+        <v>5037172</v>
+      </c>
+      <c r="G324">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="325" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B325" s="5">
+        <v>46143</v>
+      </c>
+      <c r="C325" t="s">
+        <v>98</v>
+      </c>
+      <c r="D325" t="s">
+        <v>74</v>
+      </c>
+      <c r="E325" t="s">
+        <v>150</v>
+      </c>
+      <c r="F325" s="6">
+        <v>3647607</v>
+      </c>
+      <c r="G325">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="326" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B326" s="5">
+        <v>46143</v>
+      </c>
+      <c r="C326" t="s">
+        <v>98</v>
+      </c>
+      <c r="D326" t="s">
+        <v>74</v>
+      </c>
+      <c r="E326" t="s">
+        <v>107</v>
+      </c>
+      <c r="F326" s="6">
+        <v>3473911</v>
+      </c>
+      <c r="G326">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="327" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B327" s="5">
+        <v>46143</v>
+      </c>
+      <c r="C327" t="s">
+        <v>98</v>
+      </c>
+      <c r="D327" t="s">
+        <v>74</v>
+      </c>
+      <c r="E327" t="s">
+        <v>143</v>
+      </c>
+      <c r="F327" s="6">
+        <v>2258042</v>
+      </c>
+      <c r="G327">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="328" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B328" s="5">
+        <v>46143</v>
+      </c>
+      <c r="C328" t="s">
+        <v>98</v>
+      </c>
+      <c r="D328" t="s">
+        <v>74</v>
+      </c>
+      <c r="E328" t="s">
+        <v>144</v>
+      </c>
+      <c r="F328" s="6">
+        <v>2084347</v>
+      </c>
+      <c r="G328">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="329" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B329" s="5">
+        <v>46143</v>
+      </c>
+      <c r="C329" t="s">
+        <v>98</v>
+      </c>
+      <c r="D329" t="s">
+        <v>74</v>
+      </c>
+      <c r="E329" t="s">
+        <v>145</v>
+      </c>
+      <c r="F329" s="6">
+        <v>1736956</v>
+      </c>
+      <c r="G329">
+        <v>109</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
